--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/13_Bartın_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/13_Bartın_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F07A92-AD90-4215-8B9E-1E30964260E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7E2F231-87F7-4359-84E8-1F6B895DEC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{20839031-C5DA-4E0E-BEBA-42F8FCEAD874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{1940CB48-387A-4907-AB8B-49F9AA3A719E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -986,14 +986,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BEC4959B-2B84-4742-BA52-5134697756E1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{10118A61-66E5-4747-B9DB-74A1C437C1EC}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{40478969-AC2F-4E29-A8E3-9DA6013AC8F1}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{B2E84658-CFFB-4480-B834-67F68D2355FF}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{BF3A2F48-2F7B-4A1F-819F-7F3AA3FDBEF2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BDDE5FF0-9402-4762-AC85-D99A9093D5EF}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{BF39FAAE-573D-47EE-93AE-A1D694F60241}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D4FB6044-F41A-49F5-B394-3CFAC14C7353}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{BB4906A3-1A16-423F-BA74-D239D1C50498}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C492306C-A3F2-4BEF-B901-E895285B3D58}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{4BD215E8-D5A6-43BB-B58A-49C8B47CF151}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{EE565E5E-C6C2-4D25-9715-CC30DBD2AFEA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F8847575-9661-4499-B86C-CE05136054B3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{715F13EC-0C3D-4397-8E6A-EEFB2A061544}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{3CFB562D-BC73-4FCB-B84B-DE780CFBE113}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B3C67B53-34FF-4D25-9E0A-22371088DA6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D73685-BE2C-4B96-A15A-BE371F7F856C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F99EDD-A302-4DB2-BCCD-E4CF6958E7A4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2628,18 +2628,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A4CD42C-69DA-4F82-8AAF-727CFAFCB037}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D9F948A-FB66-485C-B703-F32C39ADF960}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7AD9B7A-BF3D-4FD4-96F8-9593619C73E3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB6C29E4-D347-4750-9198-53E7125E6F59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83BCBD6B-3395-40CC-B053-7DC5E29849E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6651E2DA-8124-4471-9E95-105ACD62F5C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36CB4C8C-637D-4AC9-87B6-330A4E4F7C44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{733EC851-A95A-4C3D-8F5E-BAF4603EB708}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A50A33DB-2ADC-4005-BD98-9C69FF402EA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1146C2F-4E2B-415E-BE1F-77EB12E90B0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1D60801-CBC0-4B6D-8B4A-FC3DC79E274B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{698BAE2A-159E-44D0-8D23-C7BE23A75035}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4DE938A9-DF91-4BF3-BE38-EB9C029BB12D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2BCD681B-0D95-4E2B-82D6-58501FD38229}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{496A9A20-8C06-479A-BC9F-C861D7217D91}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{32F8EA33-9BB5-463B-976E-C8A1DA8D878A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A425DE1-A2EF-48CE-B3D5-6F637A174E49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2EBAC99E-FE63-4A61-B4C4-BC407393A041}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38EE94E0-394F-4D0E-80B6-1C29926B0B01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9BDD4F72-B63B-4B2E-A20D-13602391D959}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB511BB7-2FE1-4B19-8791-F456AEE8CFFA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E323C1FB-AD54-4C83-A822-A81D899FDC73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{647BC211-55F9-42D5-8068-B8DCBF2D4156}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61A0C7AE-8257-4029-88EA-71AD76B0CDEB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2652,7 +2652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54ED37F1-4281-4FD7-BA1C-00AAA4FF2EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784BC66E-6170-4009-9ED7-130A8ED5B959}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3899,18 +3899,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFDF3CC8-122F-47C2-BCAF-79387AFE77D0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F16D61EB-3C72-4880-A90D-1E64447A65CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C48718FA-7110-4CC3-A8A9-1DBB761020D2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02325E4D-310C-44A1-9B3B-A37BF71921B3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B133543E-076F-4909-995B-D5B7FF98BD48}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9326FB81-A198-418E-B7C6-5356A89A8C41}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22B237B4-F7A3-4520-BAD2-BEC48119DB9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73C3A1E9-4536-4B8B-9478-FA1F352303AA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{206DAC8E-E63B-489B-8F19-8B595D62E96D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B5EB8A0F-5688-4FC8-9635-85BA0C0E57AA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC80EB33-F105-4101-A4EE-9340E62C5C88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DED6960D-D20B-43D6-B103-BDADECE77D5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76CDE363-C0C9-4ABC-B47F-51FD740305B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5BFA5BED-5730-4C35-B966-D486A984AAD3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2274EA95-88DA-4FC8-9298-7D8FDFBC135D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3C6601FA-ED4C-42D3-AE95-F30261D202EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50435E78-802A-4E4A-9AA8-D7D6BA7A8851}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E35632BD-BAE3-44F2-82AB-D0EA28082480}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47708526-184D-4AA9-B193-4024D9863714}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0E2541A9-661E-48AB-8D22-3B8C2925DC36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6342C0C5-DBB4-44D5-A187-79D920791D38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6692057E-0F91-4B27-8998-9D4AB6216351}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{343AB4DD-25DA-4ED8-9FED-BBF8D2FD7A14}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DB92D32-D7C9-476E-BB05-3B64BAB1854B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3923,7 +3923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72848D-9649-41AC-93C1-9EFC671226D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882BA9A-9910-4409-A5A0-969249944BA6}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5166,17 +5166,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E54652A-90DC-4378-B9C3-A674C476B531}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{66B6E7A4-6CC7-4655-B355-B3713BDA4FA4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3066A83E-B940-4E36-A99A-C827F0054ED3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF54C1C2-185C-4D30-B4F5-8C49E5C84087}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{525E3CD9-7D58-45BD-8D2E-F68D08523395}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09762CBF-8FC8-4110-AC1B-611FB35C5674}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EBE1BC4-020A-495F-AA3E-10F905AE6B1D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC8FF2AB-EEE0-459A-BC81-759BB4272BD1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{07105A95-EDFD-47DC-9445-4160A566ABAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DA04750-0115-44B1-A2BC-79A36D15CC8B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6BA95987-2CAB-4F73-AEE9-0E7A00CA0009}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64FEF2BF-98AC-455C-B131-598DF9FD37B3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{318ADA84-8CB2-448D-B245-846BEE4C6D35}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CE72D2BB-8C57-4636-A3C4-8D86156B7AA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A9ABE02B-1B01-4473-8C80-3FEBA92FE511}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{59EEB944-9CC3-41E2-98D2-37176F40A12A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69974364-256A-4062-82EC-8EA92FD199A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{77F86AFD-FC0F-4119-B69E-09148945014E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38E7008D-9F3B-446A-92D2-77B463AF47EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7D0DFC32-2F99-4F57-B9E0-B5E054A2B6BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{291FB4F8-69A2-4DAC-B0B0-5CE3F6B8D989}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C97E38D-DEA3-4443-AB29-A9DC9BA58318}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5189,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB22A114-0713-460F-B558-FB9CDBC231B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB2411-F653-44D4-88BC-389969AA5799}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6420,18 +6420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74691574-9CE6-4EDB-B999-283CCE78713F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7E112F5-5757-45C8-A494-73E9D347866A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{117CBE8F-D09F-4797-BBEB-98870C7BB133}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{75EE424A-9982-4AF5-832F-7FCB15593FDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C1FB378D-43D9-4160-99EA-5079B8B5C3A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F0E3300-4065-4167-8D74-5D02FDE2EFCE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70C6E71E-F5D0-4870-BCB2-1E51A7FF68EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CE4D029-301F-4F6A-9108-7667F0801BFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83381644-1FD8-4796-911B-E20AF0F8198E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7D7C5F3-F205-4854-82E3-CB05CDD5D581}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAE8532B-EF2D-4380-9DAB-56DFB1008E91}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC314E7B-8C38-4866-B6FF-C21F45944B18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3101FF51-05D0-436F-94EC-7B14F498658F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E77A5879-ED5C-49CE-B8C7-9E4B458F0C7F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{09085811-BA9D-45FC-990E-D7A13C320751}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9C39C25-0FA3-4696-9C7B-AAD48D80E35B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4B22A74-2811-4427-A0D4-6DBCBE98E9B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E299A014-0186-4FC5-9CD6-FC04C0D83E93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AEEF7611-E54D-43C9-9989-AB23F52790C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{41FBE2E3-DCAC-473B-91C3-230E52A2BFFF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DE5956DA-0622-42E1-AAE2-D81ACC963B6E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{006DE038-33D9-46C4-88C6-1EDE13EE6B6E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0289500-88A5-4041-8C28-2E0ADC283499}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6313BDD-12EF-4C65-B75A-B3F9D48C3839}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6444,7 +6444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399AFF38-B038-4FD3-9349-279FFB765A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E5F086-238A-4436-A901-B497FD38070D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7709,18 +7709,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4BA35579-FE60-4515-83D4-B2C9963B1C35}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CCAB9F7-316F-46F1-9519-881DFD6669F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BDDC20C-A011-4ADB-97B7-A568D7F68A85}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E05A8E0E-7BA6-4AA6-90D0-D4B800AF2EDF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBED7EDF-4F4C-4BBF-9F6E-21A7C35EBBBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B88E4F63-20A4-48AC-AA35-3827C0BE3938}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{01C2F964-B627-49E3-909A-347001FA9207}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13179533-686A-4D60-B906-7DFFFFC33D99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48A697FB-BE42-42E1-9539-1866620CD446}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E222EE2-A0B8-4E5E-907F-6F060FA06FB4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3909A80-4793-4C4E-A336-AF3E5E725FC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28B71FB3-C89D-44BF-A90F-182C649BE96A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8D24C91-D16E-4B80-9943-9BDE609E11B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{12A24FEF-7CD9-4F78-928D-60C4559F7CFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA90EEA9-10C7-48EC-8038-4DB71DE9F1AF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CF52EDF-01DA-421B-B769-F21A65B5889A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{94DA8663-3456-4CF5-9305-B166AE107467}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19D500BC-F60A-4B28-BE85-2C3D90F6D361}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3A7D0E1-93BA-4591-BCE9-6696B98DE7E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{98918C82-BC68-4614-A68A-8C1887197D5E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD49938E-7890-4AEE-87E0-0F48C3B556B1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71512015-A435-4A7E-B75E-78188978C137}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDD463DD-60FB-48E1-9560-E77E73F8FFAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E60F543D-CB72-4092-84F7-120D186B4AA8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7733,7 +7733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532785DA-92C4-4CAD-8C47-9C0C04BB34B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CC3779-2471-403B-AE07-FE55975AC387}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8994,18 +8994,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{596D2D18-2C52-40D3-A6FE-AADECA57865D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AC25E97-5F4A-4E59-AA71-76F5CA86ABF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30A02B3D-9406-4F0A-885B-FCADCB04EE2B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{332E469D-D5C8-40B2-BCCF-5425D0ED195D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92A391EE-D9F8-4288-8ECD-A7C126299FC9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B666893-5265-4C09-B660-73B1C8B125D0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A3D8AA4-8A41-4647-8A22-18E753E36F80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7B4290F-F1FB-4DA8-85F5-1F7EC871797C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3BD73750-4F56-4750-9E48-1DBAF6D8A6F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F530AD6F-B260-491D-84CF-63CEA6FF679A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5230D7A8-4F8B-4FF2-8D25-7DA90EA97C75}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F56A9BE0-1F06-4679-969F-E65C4BE017AE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{31E390B9-CCE9-4000-8FCE-F1694158AEBD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3A3F4AB8-F9BE-4F55-9BCB-A1FC2B8EFA34}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17113CED-F66F-4B95-A4AE-34B87328A87A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EB128B0-0B86-4DC6-8713-442FC8C9455E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CD4CEBD-8DC4-429C-98CE-B57304505D9A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA3C973C-5D91-4824-AB12-7D1BDEF089E8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA60F3A3-8623-463D-B0A2-EC7C75EA5A9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8AF82523-2671-485C-A40F-0D92B9577E8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32A0AC86-FF76-44EF-8DFC-86890E953543}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C4071E0-2BF2-437F-BCF9-1A6248587E60}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F01FD06-BF82-4C12-9AE3-9553A857C677}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A22E0EB2-E673-4FCE-A2C0-146C9E162B59}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9018,7 +9018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D592727-CC2B-4699-82D2-DFA6A50037C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BBF776F-1267-445C-995B-7BB37B21416F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10279,18 +10279,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1E761A6C-3670-432A-BB41-1C7500AD621F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5989CE0-A468-41EA-91D0-26F0E8CF26E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C71C8ABD-D7E6-4C63-A866-E05C2AC10B5F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{11D0DFA0-7631-4AC1-B782-26ED529024E1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F25216C-279B-4379-8521-49FCEC497F11}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{26FD85D0-106F-4EC7-9140-7C26763266F6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A756FD1-3259-4C15-9A5D-D41C0074C1CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EEB77DE-E7E4-4126-8F45-531154E0BED7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67BA369F-0502-46B8-AF0A-D5D08B8AFB0E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96DAB759-01DF-405A-B277-C6004244D290}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E42ADC6-60D9-40B0-B2FF-D082A6A04665}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02E8BEF2-A3F8-44CB-9AFA-942807C4C4A6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{70A06DAB-55BE-4A54-893D-1C75E067900E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C7A9EF2-B3FE-467D-B0DA-D72C030B30EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DFE1582-7430-441F-8CF8-35348757128B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C0FE228F-ACD3-411B-BE2D-448997FD7487}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F791EE1E-D13C-41F2-86FD-6DDEFC4D2463}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E37B7BE9-FFEC-4512-BB24-0CCEF77A58FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA76858D-CA34-4DBB-841A-7A84AAB431F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54687743-B0DD-47EE-97E0-8908E449488E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2FAEB3B7-12BB-43D4-AE18-E01BF6E7F694}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C4C6A4A-16DA-41E8-8CE0-FC0F98A0B247}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83051BA9-FC94-4A55-8381-01EA312DDD0C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41510532-2C11-4F86-9FFE-A1DBB956785F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10303,7 +10303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B4F748-9C6A-4DC1-B9C7-CAB0EA6E35E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE88C0B-CE32-46EA-9B16-A65C2F2911DE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11568,18 +11568,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AC1BA71-D1B3-4F90-B18E-3CBD714E3D16}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C9265F96-7794-482D-8614-4FC89BFB7F03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DCCC52E-7C0F-454B-8684-A477649C324D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D3A1D55-DF03-4A6C-8937-6E2DD2A3B897}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29AFFF64-2423-487A-97A4-5746D8E28ECF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9285F45C-A462-4A9F-8320-71E49AECD961}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B59EBFBC-F2E2-4962-AA1A-58EB8B0CE9FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{171983D8-1108-4056-9701-4ABC68F134CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4929E8B1-4C76-4008-893C-42CD0C172802}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2208283-4018-44C2-848B-16850B647FF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26659DCF-CCD2-4F22-9A3C-9C16137F5184}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C480B804-CDFC-4C46-8786-C185F1750DEC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{50C2603A-7709-4D71-A112-18E9F45F3B90}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9240221B-10BA-4FE6-A76B-B5B0BA6EDCEE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53953346-CE22-446F-98BC-EC9AC056C9A3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D72B5AF-D6E7-4CD5-BB54-D9356BE1EDD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55B5F65D-B032-4253-BAB9-492041BB9F79}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D2DADE2-0945-4279-9172-FF3A8B4F4D2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{86074319-25AB-4BE7-9F85-C3B57C795367}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B36CAFD1-E4F6-4B31-A308-E40911D06C04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE694BCA-904A-433F-80B7-F3C27DD67F27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97394E3D-AFE3-4A1B-9540-C9309386878E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB78A944-B24B-4467-94AF-CF787600F751}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BA538F6-78EB-4140-A62A-DA5046524B7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11592,7 +11592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8A01D4-509F-4D03-86DC-186D888D1A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD13BA8C-12A8-48C3-9C25-1BD24A3D4D58}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12845,18 +12845,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8085D397-4A1B-478B-A8C4-E807B0899C97}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF438291-8ECC-49B3-BC2C-65B7DBC5C144}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FD7FD96-546F-428C-8A8A-FEED84392341}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D8F9E35C-DBBE-4C61-B543-11095AF77F1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BACF69C-FBC1-4379-BB15-97A57199682A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BE3EC0C-E261-40A9-971F-B5CC57066C31}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37DB154C-7EDD-4E73-AEF8-7028222E6E89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FBEEAE0-2D51-4E61-9060-12E5556C3579}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE7D0368-7CF2-477C-B46E-1771229777D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68AFE01A-4319-4119-AF52-873F8B94AD1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0AFF3897-84F2-4470-B087-3C9ADA5DEA3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25AD2FC7-30F5-4C93-8CAE-46AE33E85EC4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69D42E79-A03D-43A0-85C5-12243F20504D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F69BBD5C-9F24-45BA-92D3-B030EAAE105D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8C91A7A0-4034-4BA3-BCA7-299733DF289C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF36C43A-989C-41B3-A019-9444270DD2A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A5B5319-D4AC-448A-8534-30F76A0A5B06}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4F54CB49-AB09-43D3-ADCC-66DDA0FB937A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14F03DFD-C7C8-4C7B-B9B0-1400F0B9A356}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34913AFD-5685-419D-91A1-3255DA01096C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82366B75-6BF3-4D23-8958-AEFC17616D56}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{184402AF-A6AB-4A5E-A0F1-0A1FF0C41C34}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E5D22FE-674A-4377-8C7C-A291F72736F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E4632B1A-10CA-42FE-8C3B-5B6F5DB92C88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12869,7 +12869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60FF2C1-A0C5-4A6D-BC1D-AE0BD2A6C1CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FC6523-D309-4A1B-BD27-BD583F979A4B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14128,18 +14128,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{472D8F46-F3D0-4EE9-A244-BABA00D9F982}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{064EFB80-0282-4965-ADED-B40EB45AE944}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10E3F108-D3DE-4681-B855-CD3087C0977E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{314D51BC-BE52-4F7C-874A-DB5FEC38B35C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{099103D0-D2DC-406E-93AE-E585123DE52D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FBDCCD54-BDBC-4CC3-A84B-909B2D2A5B27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B4E0150-BEB7-4DB9-8E3C-C2080A7C5182}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42120ADF-4DAF-4B06-B4A9-86062BD27745}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7986366-B6D9-4F9B-8F59-D25F695F6151}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34E1C523-1EFF-4EAB-B54B-97A9784AC623}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9172B85-C941-4A4B-8224-941AD99A5A56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01D1FED6-22D6-405A-8E72-E18C4F76AE8C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AA1B3E3-2CCA-4E71-8DB5-817C0FF04C14}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E928F9B7-18DA-467E-B685-A70A1CFB40BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30D77D53-1CAE-464E-86B5-D6D3510F208B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E55A99B8-8A3F-4B62-AB6B-CDD0BBCA3DAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{613A3F7A-73D0-43DD-886F-E9A1B1C4DC28}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6F28C1D4-84F3-4636-81F3-D9D8AF297BC2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D252A24-9D5D-43B5-9FF7-79770A4E87F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BC3D1C0-FE8A-4F3D-8E07-97EEE2B8EF64}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D2CF0C6-00EC-4D5B-B3A9-8D59C0CD13B0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DE59EB3-FDCD-48D8-936C-7F0712492889}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5091567A-7F67-469E-AB95-B4AE1F4E4A5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22D89DC6-4884-49E2-A56D-A345C627C9F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14152,7 +14152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35234FD3-B9F3-4347-A770-0D4C700F721E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BC52EB-AFDA-41E8-B2B1-050AB4F14E10}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15405,18 +15405,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5916E9E5-275F-4218-AD48-A3F5750A4BFD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FDAC9424-CAA8-4A29-A020-089E612E47A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7634FFB2-75E0-499A-8B70-DC3583AF089B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CF00E356-6C6A-44CA-BF44-E97EAED66E06}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B2B1025-C789-483F-8A6A-9B770F867F76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52F44F8B-9702-4A53-B9FE-16F53D3FA422}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{483514A2-1395-44C9-94CE-6D41AED8FC9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9F7343E-67F0-4290-A6EB-3EA400B52337}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82B104E7-83A8-46B2-A601-B3178FF74357}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2780D96-2AF0-4BBD-9A08-261FE6860C32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3737F239-C6C0-480A-B7F2-13FCEE1D06FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E7777F6-862B-42F2-A100-8A8E2893E253}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D035088B-62BA-43D9-997B-CC33FEBF1A2D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C21C6422-17D9-4953-A7AE-4DFE96FC7ECB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{118D9BEB-F7A4-49F9-8B82-9A311DC4370D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F9AB477-87E8-4F00-9BC3-BD1BA1C439EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{679C8F8A-4DE8-4517-ADA1-7D6D271E662A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A58B423-72E3-4226-AD22-DB55364AFC91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0629EAE8-AC8F-4F7B-A1B8-19DB2DF4B855}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A36EF55F-D166-46D1-9563-E81A7060B5A9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30F465F0-AB3D-470A-B0C1-1668198E0DB5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4A047B0F-5AF1-4749-AA32-CD720B35836D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6757F9EB-EEB8-49F5-A034-4ECC2BEE8780}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{495DF95C-3C2B-4895-8DFD-59FC1856DA5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15429,7 +15429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B75C13F-CE74-49ED-88AB-9ABDF86022DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806C5B9-6F71-4DCD-B752-CB10616DB9A0}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16682,18 +16682,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1B9E242-0276-4A94-94DE-C1EB9EFC185A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{270EDA56-80D8-4068-88A5-ED2BF52AFAD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF38A13-ACEF-4B20-A0B9-3B017E8644C9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A013D6A-9AEB-4469-8DC1-FE1D376C0F7D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C08A7A8B-8F22-4978-BFCC-2DE7D90BAB1D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6397AC1-C96C-4EC4-B7DD-367157B0838D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A68B3AA8-D295-4D4A-9D47-DF81E1168CCD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1DAE503E-FE30-463F-8F9C-2E8A588F0B37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4C52A62-D3B0-447E-AD34-AF09007034C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{881DCF2C-2AED-4959-9442-94420DCC86EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9C972A7-E788-49E0-9369-32F039366B60}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A255172E-9BCB-44F7-994C-F9AFFC5D2D59}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{445A9415-A740-4D72-93FB-6B8F23074834}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1C1AC2D-57E0-4808-A994-FAB3B6DEC7FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63FACD60-DAD6-42E2-BD76-75EA31DD57D0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{73CF4BB4-816D-4508-A25B-3134B2B67374}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{188B2FB2-200B-4D73-8BC6-D12946184916}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CAFD79D2-D0FF-4A94-B3E3-342936F60699}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B5079B-5AFE-4409-BBBC-9D709577A4EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E19E91C1-E6AD-4DCB-B021-5E65A5831AF3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8DA5D7BE-721B-46E2-8DD5-81228826E8F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84A3E1A5-5D5C-4CCB-ACBC-E516FDDF56A8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E648D70D-4A2D-4355-B3E1-9DDB171873EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9665EF53-9E46-4563-B24A-1E96637FF991}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
